--- a/src/main/resources/websheet/chartpie3d.xlsx
+++ b/src/main/resources/websheet/chartpie3d.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28716" windowHeight="13080"/>
+    <workbookView windowWidth="19500" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>JASON</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">tie:form(name="Sheet1" length="23" headerLength="0" footerLength="0" fixedWidthStyle="true")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>Month</t>
   </si>
@@ -40,25 +63,367 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,13 +431,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -81,27 +688,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -115,26 +761,27 @@
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="75"/>
-      <c:rotY val="0"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -150,6 +797,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -207,17 +878,50 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -227,7 +931,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -241,14 +945,14 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="80010" y="1177290"/>
+        <a:ext cx="3926840" cy="3036570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -307,71 +1011,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,27 +1288,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="38.4380952380952" customWidth="1"/>
+    <col min="3" max="3" width="19.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="14.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +1324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -628,7 +1332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -636,7 +1340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -644,7 +1348,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -653,58 +1357,58 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -712,37 +1416,38 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" ht="31.2" customHeight="1" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:B22"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>